--- a/day_8/copy data.xlsx
+++ b/day_8/copy data.xlsx
@@ -14,18 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>kashti_1</t>
-  </si>
-  <si>
-    <t>df.sample(frac=0.5,</t>
-  </si>
-  <si>
-    <t>random_state=1)</t>
-  </si>
-  <si>
-    <t>kashti_1.shape</t>
+    <t>sex</t>
   </si>
 </sst>
 </file>
@@ -383,30 +374,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" s="1">
-        <f/>
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
